--- a/biology/Écologie/Forêts_des_montagnes_de_l'Alberta/Forêts_des_montagnes_de_l'Alberta.xlsx
+++ b/biology/Écologie/Forêts_des_montagnes_de_l'Alberta/Forêts_des_montagnes_de_l'Alberta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_des_montagnes_de_l%27Alberta</t>
+          <t>Forêts_des_montagnes_de_l'Alberta</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les forêts des montagnes de l'Alberta sont une écorégion terrestre nord-américaine du type Forêts de conifères tempérées du World Wildlife Fund[1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les forêts des montagnes de l'Alberta sont une écorégion terrestre nord-américaine du type Forêts de conifères tempérées du World Wildlife Fund
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAts_des_montagnes_de_l%27Alberta</t>
+          <t>Forêts_des_montagnes_de_l'Alberta</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme son nom l'indique, cette écorégion se trouve entièrement en Alberta sauf la partie nord qui traverse la frontière britanno-colombienne[1].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme son nom l'indique, cette écorégion se trouve entièrement en Alberta sauf la partie nord qui traverse la frontière britanno-colombienne.  
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAts_des_montagnes_de_l%27Alberta</t>
+          <t>Forêts_des_montagnes_de_l'Alberta</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Climat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La température annuelle moyenne est de 2,5 °C.  La température estivale moyenne est de 12 °C et la température hivernale moyenne est de −7,5 °C.  Le taux de précipitations annuelles varie entre 600 mm et 800 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La température annuelle moyenne est de 2,5 °C.  La température estivale moyenne est de 12 °C et la température hivernale moyenne est de −7,5 °C.  Le taux de précipitations annuelles varie entre 600 mm et 800 mm.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAts_des_montagnes_de_l%27Alberta</t>
+          <t>Forêts_des_montagnes_de_l'Alberta</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Caractéristiques biologiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les forêts montagneuses de l'Alberta sont dominées par des écosystèmes alpin et subalpin.  Les forêts se composent de pins tordus, d'épinettes d'Engelmann et de sapins subalpins.  En altitude, la végétation est dominée par le sapin subalpin, les éricacées, les carex et de Dryas hookeriana[1].  
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les forêts montagneuses de l'Alberta sont dominées par des écosystèmes alpin et subalpin.  Les forêts se composent de pins tordus, d'épinettes d'Engelmann et de sapins subalpins.  En altitude, la végétation est dominée par le sapin subalpin, les éricacées, les carex et de Dryas hookeriana.  
 </t>
         </is>
       </c>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAts_des_montagnes_de_l%27Alberta</t>
+          <t>Forêts_des_montagnes_de_l'Alberta</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,9 +622,11 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette écorégion est intacte dans une proportion de 80 %[1].  
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette écorégion est intacte dans une proportion de 80 %.  
 </t>
         </is>
       </c>
